--- a/pres/Auction.Web/wwwroot/Auction.xlsx
+++ b/pres/Auction.Web/wwwroot/Auction.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Id Akk</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>globuspropil</t>
-  </si>
-  <si>
-    <t>09876543</t>
   </si>
   <si>
     <t>ygas</t>
@@ -764,7 +761,6 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1087,7 +1083,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1174,8 +1170,8 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
+      <c r="D5">
+        <v>19876543</v>
       </c>
       <c r="E5">
         <v>1000000</v>
@@ -1186,10 +1182,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
       </c>
       <c r="D6">
         <v>98765432</v>
@@ -1210,7 +1206,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
@@ -1224,31 +1220,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1259,13 +1255,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
       <c r="G2">
         <v>123</v>
@@ -1282,13 +1278,13 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
       </c>
       <c r="G3">
         <v>145</v>
@@ -1305,13 +1301,13 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
       <c r="G4">
         <v>45</v>
@@ -1328,13 +1324,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
       <c r="G5">
         <v>360</v>
@@ -1351,13 +1347,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
       </c>
       <c r="G6">
         <v>1050</v>
